--- a/non_explainable_medium_disc/val/standardized_data.xlsx
+++ b/non_explainable_medium_disc/val/standardized_data.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C2" t="n">
         <v>-0.9737466358227524</v>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C3" t="n">
         <v>0.01425545879375223</v>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C4" t="n">
         <v>0.5082565061020046</v>
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C5" t="n">
         <v>-0.4797455885145001</v>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C6" t="n">
         <v>-0.9737466358227524</v>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C7" t="n">
         <v>-0.4797455885145001</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C8" t="n">
         <v>0.01425545879375223</v>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C9" t="n">
         <v>-1.467747683131005</v>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C10" t="n">
         <v>-0.4797455885145001</v>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C11" t="n">
         <v>1.002257553410257</v>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C12" t="n">
         <v>0.5082565061020046</v>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C13" t="n">
         <v>1.002257553410257</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.818402550952196</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C14" t="n">
         <v>0.5082565061020046</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.319047116487434</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C15" t="n">
         <v>0.5082565061020046</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C16" t="n">
         <v>1.496258600718509</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C17" t="n">
         <v>-0.4797455885145001</v>
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C18" t="n">
         <v>-0.9737466358227524</v>
@@ -688,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7653795281157342</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C19" t="n">
         <v>2.484260695335014</v>
@@ -702,7 +702,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C20" t="n">
         <v>0.5082565061020046</v>
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C21" t="n">
         <v>0.5082565061020046</v>
@@ -730,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.080179099789931</v>
+        <v>-2.038394954766555</v>
       </c>
       <c r="C22" t="n">
         <v>-0.4797455885145001</v>
@@ -744,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3962678025346013</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C23" t="n">
         <v>-0.9737466358227524</v>
@@ -758,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C24" t="n">
         <v>-1.961748730439257</v>
@@ -772,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2117119397440348</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C25" t="n">
         <v>1.496258600718509</v>
@@ -786,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.503602979278</v>
+        <v>2.078021113844616</v>
       </c>
       <c r="C26" t="n">
         <v>0.5082565061020046</v>
@@ -800,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C27" t="n">
         <v>0.01425545879375223</v>
@@ -814,7 +814,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C28" t="n">
         <v>1.496258600718509</v>
@@ -828,7 +828,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C29" t="n">
         <v>-1.467747683131005</v>
@@ -842,7 +842,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C30" t="n">
         <v>0.01425545879375223</v>
@@ -856,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.080179099789931</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C31" t="n">
         <v>0.01425545879375223</v>
@@ -870,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C32" t="n">
         <v>1.002257553410257</v>
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C33" t="n">
         <v>1.002257553410257</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2117119397440348</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C34" t="n">
         <v>-1.467747683131005</v>
@@ -912,7 +912,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5808236653251677</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C35" t="n">
         <v>-1.961748730439257</v>
@@ -926,7 +926,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C36" t="n">
         <v>1.002257553410257</v>
@@ -940,7 +940,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C37" t="n">
         <v>1.002257553410257</v>
@@ -954,7 +954,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.526511511418231</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C38" t="n">
         <v>1.002257553410257</v>
@@ -968,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C39" t="n">
         <v>-0.4797455885145001</v>
@@ -982,7 +982,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.526511511418231</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C40" t="n">
         <v>-0.9737466358227524</v>
@@ -996,7 +996,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C41" t="n">
         <v>0.01425545879375223</v>
@@ -1010,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C42" t="n">
         <v>0.5082565061020046</v>
@@ -1024,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C43" t="n">
         <v>-0.9737466358227524</v>
@@ -1038,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C44" t="n">
         <v>0.01425545879375223</v>
@@ -1052,7 +1052,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3419556486276646</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C45" t="n">
         <v>0.5082565061020046</v>
@@ -1066,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.503602979278</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C46" t="n">
         <v>0.01425545879375223</v>
@@ -1080,7 +1080,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C47" t="n">
         <v>-1.961748730439257</v>
@@ -1094,7 +1094,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2117119397440348</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C48" t="n">
         <v>-1.961748730439257</v>
@@ -1108,7 +1108,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C49" t="n">
         <v>0.01425545879375223</v>
@@ -1122,7 +1122,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2117119397440348</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C50" t="n">
         <v>-0.9737466358227524</v>
@@ -1136,7 +1136,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C51" t="n">
         <v>0.01425545879375223</v>
@@ -1150,7 +1150,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.0572705676497</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C52" t="n">
         <v>0.5082565061020046</v>
@@ -1164,7 +1164,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C53" t="n">
         <v>-0.4797455885145001</v>
@@ -1178,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C54" t="n">
         <v>-0.4797455885145001</v>
@@ -1192,7 +1192,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3962678025346013</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C55" t="n">
         <v>-0.4797455885145001</v>
@@ -1206,7 +1206,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C56" t="n">
         <v>0.01425545879375223</v>
@@ -1220,7 +1220,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C57" t="n">
         <v>1.002257553410257</v>
@@ -1234,7 +1234,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C58" t="n">
         <v>0.5082565061020046</v>
@@ -1248,7 +1248,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C59" t="n">
         <v>-0.4797455885145001</v>
@@ -1262,7 +1262,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.319047116487434</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C60" t="n">
         <v>-0.4797455885145001</v>
@@ -1276,7 +1276,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C61" t="n">
         <v>-0.9737466358227524</v>
@@ -1290,7 +1290,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C62" t="n">
         <v>-1.467747683131005</v>
@@ -1304,7 +1304,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C63" t="n">
         <v>-0.9737466358227524</v>
@@ -1318,7 +1318,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C64" t="n">
         <v>0.5082565061020046</v>
@@ -1332,7 +1332,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C65" t="n">
         <v>1.002257553410257</v>
@@ -1346,7 +1346,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.449290825371063</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C66" t="n">
         <v>-0.4797455885145001</v>
@@ -1360,7 +1360,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C67" t="n">
         <v>-0.9737466358227524</v>
@@ -1374,7 +1374,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C68" t="n">
         <v>0.01425545879375223</v>
@@ -1388,7 +1388,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.002958413742763</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C69" t="n">
         <v>1.002257553410257</v>
@@ -1402,7 +1402,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.319047116487434</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C70" t="n">
         <v>0.5082565061020046</v>
@@ -1416,7 +1416,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C71" t="n">
         <v>0.01425545879375223</v>
@@ -1430,7 +1430,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-2.038394954766555</v>
       </c>
       <c r="C72" t="n">
         <v>-1.467747683131005</v>
@@ -1444,7 +1444,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C73" t="n">
         <v>1.002257553410257</v>
@@ -1458,7 +1458,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.503602979278</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C74" t="n">
         <v>-0.9737466358227524</v>
@@ -1472,7 +1472,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C75" t="n">
         <v>1.990259648026762</v>
@@ -1486,7 +1486,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.503602979278</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C76" t="n">
         <v>0.5082565061020046</v>
@@ -1500,7 +1500,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C77" t="n">
         <v>1.496258600718509</v>
@@ -1514,7 +1514,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2117119397440348</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C78" t="n">
         <v>-1.961748730439257</v>
@@ -1528,7 +1528,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.134491253696867</v>
+        <v>2.078021113844616</v>
       </c>
       <c r="C79" t="n">
         <v>0.5082565061020046</v>
@@ -1542,7 +1542,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C80" t="n">
         <v>0.01425545879375223</v>
@@ -1556,7 +1556,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2117119397440348</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C81" t="n">
         <v>1.002257553410257</v>
@@ -1570,7 +1570,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C82" t="n">
         <v>0.01425545879375223</v>
@@ -1584,7 +1584,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.818402550952196</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C83" t="n">
         <v>0.01425545879375223</v>
@@ -1598,7 +1598,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C84" t="n">
         <v>1.002257553410257</v>
@@ -1612,7 +1612,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C85" t="n">
         <v>1.002257553410257</v>
@@ -1626,7 +1626,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C86" t="n">
         <v>-1.467747683131005</v>
@@ -1640,7 +1640,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C87" t="n">
         <v>1.002257553410257</v>
@@ -1654,7 +1654,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C88" t="n">
         <v>1.496258600718509</v>
@@ -1668,7 +1668,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.503602979278</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C89" t="n">
         <v>0.5082565061020046</v>
@@ -1682,7 +1682,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.503602979278</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C90" t="n">
         <v>0.5082565061020046</v>
@@ -1696,7 +1696,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C91" t="n">
         <v>-0.4797455885145001</v>
@@ -1710,7 +1710,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C92" t="n">
         <v>-2.455749777747509</v>
@@ -1724,7 +1724,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C93" t="n">
         <v>0.01425545879375223</v>
@@ -1738,7 +1738,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C94" t="n">
         <v>1.002257553410257</v>
@@ -1752,7 +1752,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C95" t="n">
         <v>1.496258600718509</v>
@@ -1766,7 +1766,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C96" t="n">
         <v>0.01425545879375223</v>
@@ -1780,7 +1780,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C97" t="n">
         <v>-1.467747683131005</v>
@@ -1794,7 +1794,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C98" t="n">
         <v>0.5082565061020046</v>
@@ -1808,7 +1808,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C99" t="n">
         <v>0.01425545879375223</v>
@@ -1822,7 +1822,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C100" t="n">
         <v>-0.4797455885145001</v>
@@ -1836,7 +1836,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.688158842068566</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C101" t="n">
         <v>-0.4797455885145001</v>
@@ -1850,7 +1850,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C102" t="n">
         <v>0.5082565061020046</v>
@@ -1864,7 +1864,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.080179099789931</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C103" t="n">
         <v>-0.4797455885145001</v>
@@ -1878,7 +1878,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.7110673742087975</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C104" t="n">
         <v>-0.4797455885145001</v>
@@ -1892,7 +1892,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C105" t="n">
         <v>0.5082565061020046</v>
@@ -1906,7 +1906,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3962678025346013</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C106" t="n">
         <v>-1.467747683131005</v>
@@ -1920,7 +1920,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C107" t="n">
         <v>1.002257553410257</v>
@@ -1934,7 +1934,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.526511511418231</v>
+        <v>-2.038394954766555</v>
       </c>
       <c r="C108" t="n">
         <v>0.5082565061020046</v>
@@ -1948,7 +1948,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.319047116487434</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C109" t="n">
         <v>-1.467747683131005</v>
@@ -1962,7 +1962,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C110" t="n">
         <v>0.01425545879375223</v>
@@ -1976,7 +1976,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C111" t="n">
         <v>-0.4797455885145001</v>
@@ -1990,7 +1990,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C112" t="n">
         <v>-0.4797455885145001</v>
@@ -2004,7 +2004,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C113" t="n">
         <v>-0.4797455885145001</v>
@@ -2018,7 +2018,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C114" t="n">
         <v>0.01425545879375223</v>
@@ -2032,7 +2032,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C115" t="n">
         <v>1.496258600718509</v>
@@ -2046,7 +2046,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C116" t="n">
         <v>1.002257553410257</v>
@@ -2060,7 +2060,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C117" t="n">
         <v>0.5082565061020046</v>
@@ -2074,7 +2074,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C118" t="n">
         <v>0.5082565061020046</v>
@@ -2088,7 +2088,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C119" t="n">
         <v>0.01425545879375223</v>
@@ -2102,7 +2102,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C120" t="n">
         <v>-0.9737466358227524</v>
@@ -2116,7 +2116,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C121" t="n">
         <v>-0.4797455885145001</v>
@@ -2130,7 +2130,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C122" t="n">
         <v>1.496258600718509</v>
@@ -2144,7 +2144,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C123" t="n">
         <v>1.002257553410257</v>
@@ -2158,7 +2158,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C124" t="n">
         <v>-0.4797455885145001</v>
@@ -2172,7 +2172,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.319047116487434</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C125" t="n">
         <v>-0.9737466358227524</v>
@@ -2186,7 +2186,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.503602979278</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C126" t="n">
         <v>-1.467747683131005</v>
@@ -2200,7 +2200,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C127" t="n">
         <v>-0.4797455885145001</v>
@@ -2214,7 +2214,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C128" t="n">
         <v>-0.9737466358227524</v>
@@ -2228,7 +2228,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C129" t="n">
         <v>-0.4797455885145001</v>
@@ -2242,7 +2242,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C130" t="n">
         <v>0.01425545879375223</v>
@@ -2256,7 +2256,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C131" t="n">
         <v>-0.4797455885145001</v>
@@ -2270,7 +2270,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C132" t="n">
         <v>1.002257553410257</v>
@@ -2284,7 +2284,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C133" t="n">
         <v>0.5082565061020046</v>
@@ -2298,7 +2298,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C134" t="n">
         <v>1.990259648026762</v>
@@ -2312,7 +2312,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.449290825371063</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C135" t="n">
         <v>-0.4797455885145001</v>
@@ -2326,7 +2326,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C136" t="n">
         <v>-0.4797455885145001</v>
@@ -2340,7 +2340,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C137" t="n">
         <v>0.5082565061020046</v>
@@ -2354,7 +2354,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C138" t="n">
         <v>0.01425545879375223</v>
@@ -2368,7 +2368,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3962678025346013</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C139" t="n">
         <v>-0.4797455885145001</v>
@@ -2382,7 +2382,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C140" t="n">
         <v>0.01425545879375223</v>
@@ -2396,7 +2396,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C141" t="n">
         <v>0.5082565061020046</v>
@@ -2410,7 +2410,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.818402550952196</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C142" t="n">
         <v>0.01425545879375223</v>
@@ -2424,7 +2424,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C143" t="n">
         <v>-0.4797455885145001</v>
@@ -2438,7 +2438,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C144" t="n">
         <v>1.002257553410257</v>
@@ -2452,7 +2452,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.264734962580497</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C145" t="n">
         <v>0.01425545879375223</v>
@@ -2466,7 +2466,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.688158842068566</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C146" t="n">
         <v>-0.9737466358227524</v>
@@ -2480,7 +2480,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.818402550952196</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C147" t="n">
         <v>1.002257553410257</v>
@@ -2494,7 +2494,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3962678025346013</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C148" t="n">
         <v>-0.4797455885145001</v>
@@ -2508,7 +2508,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.080179099789931</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C149" t="n">
         <v>0.01425545879375223</v>
@@ -2522,7 +2522,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C150" t="n">
         <v>1.002257553410257</v>
@@ -2536,7 +2536,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C151" t="n">
         <v>0.01425545879375223</v>
@@ -2550,7 +2550,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C152" t="n">
         <v>-0.9737466358227524</v>
@@ -2564,7 +2564,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C153" t="n">
         <v>0.01425545879375223</v>
@@ -2578,7 +2578,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.449290825371063</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C154" t="n">
         <v>-1.467747683131005</v>
@@ -2592,7 +2592,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C155" t="n">
         <v>-0.9737466358227524</v>
@@ -2606,7 +2606,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C156" t="n">
         <v>0.5082565061020046</v>
@@ -2620,7 +2620,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.319047116487434</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C157" t="n">
         <v>1.496258600718509</v>
@@ -2634,7 +2634,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C158" t="n">
         <v>-0.9737466358227524</v>
@@ -2648,7 +2648,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.134491253696867</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C159" t="n">
         <v>-0.4797455885145001</v>
@@ -2662,7 +2662,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C160" t="n">
         <v>-1.467747683131005</v>
@@ -2676,7 +2676,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C161" t="n">
         <v>1.990259648026762</v>
@@ -2690,7 +2690,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.7110673742087975</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C162" t="n">
         <v>0.5082565061020046</v>
@@ -2704,7 +2704,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C163" t="n">
         <v>0.01425545879375223</v>
@@ -2718,7 +2718,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.319047116487434</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C164" t="n">
         <v>1.002257553410257</v>
@@ -2732,7 +2732,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C165" t="n">
         <v>0.01425545879375223</v>
@@ -2746,7 +2746,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C166" t="n">
         <v>0.01425545879375223</v>
@@ -2760,7 +2760,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C167" t="n">
         <v>-0.4797455885145001</v>
@@ -2774,7 +2774,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.63384668816163</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C168" t="n">
         <v>-1.467747683131005</v>
@@ -2788,7 +2788,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C169" t="n">
         <v>-0.9737466358227524</v>
@@ -2802,7 +2802,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C170" t="n">
         <v>1.002257553410257</v>
@@ -2816,7 +2816,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C171" t="n">
         <v>-0.4797455885145001</v>
@@ -2830,7 +2830,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C172" t="n">
         <v>-0.9737466358227524</v>
@@ -2844,7 +2844,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3962678025346013</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C173" t="n">
         <v>-0.4797455885145001</v>
@@ -2858,7 +2858,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C174" t="n">
         <v>-1.467747683131005</v>
@@ -2872,7 +2872,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C175" t="n">
         <v>0.5082565061020046</v>
@@ -2886,7 +2886,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C176" t="n">
         <v>-1.961748730439257</v>
@@ -2900,7 +2900,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C177" t="n">
         <v>0.5082565061020046</v>
@@ -2914,7 +2914,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.9499353909063007</v>
+        <v>2.078021113844616</v>
       </c>
       <c r="C178" t="n">
         <v>-0.4797455885145001</v>
@@ -2928,7 +2928,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C179" t="n">
         <v>0.5082565061020046</v>
@@ -2942,7 +2942,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C180" t="n">
         <v>1.990259648026762</v>
@@ -2956,7 +2956,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C181" t="n">
         <v>-0.4797455885145001</v>
@@ -2970,7 +2970,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C182" t="n">
         <v>0.01425545879375223</v>
@@ -2984,7 +2984,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C183" t="n">
         <v>0.01425545879375223</v>
@@ -2998,7 +2998,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C184" t="n">
         <v>-0.4797455885145001</v>
@@ -3012,7 +3012,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.895623236999364</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C185" t="n">
         <v>0.5082565061020046</v>
@@ -3026,7 +3026,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.264734962580497</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C186" t="n">
         <v>0.5082565061020046</v>
@@ -3040,7 +3040,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C187" t="n">
         <v>1.496258600718509</v>
@@ -3054,7 +3054,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C188" t="n">
         <v>-0.9737466358227524</v>
@@ -3068,7 +3068,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C189" t="n">
         <v>-0.9737466358227524</v>
@@ -3082,7 +3082,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3962678025346013</v>
+        <v>2.078021113844616</v>
       </c>
       <c r="C190" t="n">
         <v>-1.961748730439257</v>
@@ -3096,7 +3096,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C191" t="n">
         <v>1.002257553410257</v>
@@ -3110,7 +3110,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.449290825371063</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C192" t="n">
         <v>-1.961748730439257</v>
@@ -3124,7 +3124,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2.0572705676497</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C193" t="n">
         <v>0.01425545879375223</v>
@@ -3138,7 +3138,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9499353909063007</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C194" t="n">
         <v>-0.4797455885145001</v>
@@ -3152,7 +3152,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C195" t="n">
         <v>-0.4797455885145001</v>
@@ -3166,7 +3166,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C196" t="n">
         <v>0.01425545879375223</v>
@@ -3180,7 +3180,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C197" t="n">
         <v>0.01425545879375223</v>
@@ -3194,7 +3194,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C198" t="n">
         <v>0.5082565061020046</v>
@@ -3208,7 +3208,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.134491253696867</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C199" t="n">
         <v>0.01425545879375223</v>
@@ -3222,7 +3222,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.449290825371063</v>
+        <v>-2.038394954766555</v>
       </c>
       <c r="C200" t="n">
         <v>0.01425545879375223</v>
@@ -3236,7 +3236,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C201" t="n">
         <v>-0.9737466358227524</v>
@@ -3250,7 +3250,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C202" t="n">
         <v>1.496258600718509</v>
@@ -3264,7 +3264,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C203" t="n">
         <v>-0.9737466358227524</v>
@@ -3278,7 +3278,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C204" t="n">
         <v>0.01425545879375223</v>
@@ -3292,7 +3292,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C205" t="n">
         <v>-0.9737466358227524</v>
@@ -3306,7 +3306,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.319047116487434</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C206" t="n">
         <v>0.5082565061020046</v>
@@ -3320,7 +3320,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C207" t="n">
         <v>0.5082565061020046</v>
@@ -3334,7 +3334,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3962678025346013</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C208" t="n">
         <v>0.01425545879375223</v>
@@ -3348,7 +3348,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C209" t="n">
         <v>1.002257553410257</v>
@@ -3362,7 +3362,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C210" t="n">
         <v>1.002257553410257</v>
@@ -3376,7 +3376,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C211" t="n">
         <v>-2.949750825055762</v>
@@ -3390,7 +3390,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C212" t="n">
         <v>0.5082565061020046</v>
@@ -3404,7 +3404,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C213" t="n">
         <v>1.496258600718509</v>
@@ -3418,7 +3418,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.63384668816163</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C214" t="n">
         <v>1.002257553410257</v>
@@ -3432,7 +3432,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C215" t="n">
         <v>1.002257553410257</v>
@@ -3446,7 +3446,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C216" t="n">
         <v>-0.4797455885145001</v>
@@ -3460,7 +3460,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C217" t="n">
         <v>-0.4797455885145001</v>
@@ -3474,7 +3474,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C218" t="n">
         <v>0.5082565061020046</v>
@@ -3488,7 +3488,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C219" t="n">
         <v>0.5082565061020046</v>
@@ -3502,7 +3502,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C220" t="n">
         <v>0.5082565061020046</v>
@@ -3516,7 +3516,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.134491253696867</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C221" t="n">
         <v>0.5082565061020046</v>
@@ -3530,7 +3530,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.503602979278</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C222" t="n">
         <v>1.002257553410257</v>
@@ -3544,7 +3544,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C223" t="n">
         <v>-0.4797455885145001</v>
@@ -3558,7 +3558,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.895623236999364</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C224" t="n">
         <v>0.5082565061020046</v>
@@ -3572,7 +3572,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C225" t="n">
         <v>0.5082565061020046</v>
@@ -3586,7 +3586,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C226" t="n">
         <v>0.01425545879375223</v>
@@ -3600,7 +3600,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C227" t="n">
         <v>1.990259648026762</v>
@@ -3614,7 +3614,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C228" t="n">
         <v>1.002257553410257</v>
@@ -3628,7 +3628,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C229" t="n">
         <v>0.01425545879375223</v>
@@ -3642,7 +3642,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C230" t="n">
         <v>0.01425545879375223</v>
@@ -3656,7 +3656,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C231" t="n">
         <v>-0.9737466358227524</v>
@@ -3670,7 +3670,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C232" t="n">
         <v>3.472262789951519</v>
@@ -3684,7 +3684,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C233" t="n">
         <v>1.002257553410257</v>
@@ -3698,7 +3698,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.895623236999364</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C234" t="n">
         <v>-0.4797455885145001</v>
@@ -3712,7 +3712,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C235" t="n">
         <v>-0.4797455885145001</v>
@@ -3726,7 +3726,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C236" t="n">
         <v>-0.9737466358227524</v>
@@ -3740,7 +3740,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C237" t="n">
         <v>1.496258600718509</v>
@@ -3754,7 +3754,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C238" t="n">
         <v>0.01425545879375223</v>
@@ -3768,7 +3768,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C239" t="n">
         <v>-0.4797455885145001</v>
@@ -3782,7 +3782,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C240" t="n">
         <v>0.01425545879375223</v>
@@ -3796,7 +3796,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.526511511418231</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C241" t="n">
         <v>0.5082565061020046</v>
@@ -3810,7 +3810,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C242" t="n">
         <v>-0.4797455885145001</v>
@@ -3824,7 +3824,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.503602979278</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C243" t="n">
         <v>0.01425545879375223</v>
@@ -3838,7 +3838,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3962678025346013</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C244" t="n">
         <v>1.002257553410257</v>
@@ -3852,7 +3852,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C245" t="n">
         <v>0.5082565061020046</v>
@@ -3866,7 +3866,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C246" t="n">
         <v>-0.4797455885145001</v>
@@ -3880,7 +3880,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C247" t="n">
         <v>0.01425545879375223</v>
@@ -3894,7 +3894,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C248" t="n">
         <v>1.002257553410257</v>
@@ -3908,7 +3908,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C249" t="n">
         <v>-2.949750825055762</v>
@@ -3922,7 +3922,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.134491253696867</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C250" t="n">
         <v>-1.467747683131005</v>
@@ -3936,7 +3936,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C251" t="n">
         <v>1.002257553410257</v>
@@ -3950,7 +3950,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C252" t="n">
         <v>0.5082565061020046</v>
@@ -3964,7 +3964,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C253" t="n">
         <v>-1.467747683131005</v>
@@ -3978,7 +3978,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C254" t="n">
         <v>0.5082565061020046</v>
@@ -3992,7 +3992,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C255" t="n">
         <v>0.01425545879375223</v>
@@ -4006,7 +4006,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.9499353909063007</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C256" t="n">
         <v>1.002257553410257</v>
@@ -4020,7 +4020,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C257" t="n">
         <v>-1.467747683131005</v>
@@ -4034,7 +4034,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2117119397440348</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C258" t="n">
         <v>-0.9737466358227524</v>
@@ -4048,7 +4048,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.02715607695346835</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C259" t="n">
         <v>-0.4797455885145001</v>
@@ -4062,7 +4062,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.134491253696867</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C260" t="n">
         <v>-0.4797455885145001</v>
@@ -4076,7 +4076,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C261" t="n">
         <v>1.496258600718509</v>
@@ -4090,7 +4090,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C262" t="n">
         <v>-0.4797455885145001</v>
@@ -4104,7 +4104,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C263" t="n">
         <v>-1.467747683131005</v>
@@ -4118,7 +4118,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C264" t="n">
         <v>0.01425545879375223</v>
@@ -4132,7 +4132,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C265" t="n">
         <v>0.5082565061020046</v>
@@ -4146,7 +4146,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C266" t="n">
         <v>-0.4797455885145001</v>
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C267" t="n">
         <v>-0.4797455885145001</v>
@@ -4174,7 +4174,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C268" t="n">
         <v>1.496258600718509</v>
@@ -4188,7 +4188,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.319047116487434</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C269" t="n">
         <v>0.01425545879375223</v>
@@ -4202,7 +4202,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C270" t="n">
         <v>1.496258600718509</v>
@@ -4216,7 +4216,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C271" t="n">
         <v>0.01425545879375223</v>
@@ -4230,7 +4230,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C272" t="n">
         <v>-0.9737466358227524</v>
@@ -4244,7 +4244,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C273" t="n">
         <v>1.496258600718509</v>
@@ -4258,7 +4258,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C274" t="n">
         <v>0.01425545879375223</v>
@@ -4272,7 +4272,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.7653795281157342</v>
+        <v>2.394668503737783</v>
       </c>
       <c r="C275" t="n">
         <v>-0.4797455885145001</v>
@@ -4286,7 +4286,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C276" t="n">
         <v>-0.9737466358227524</v>
@@ -4300,7 +4300,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.449290825371063</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C277" t="n">
         <v>0.01425545879375223</v>
@@ -4314,7 +4314,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C278" t="n">
         <v>0.5082565061020046</v>
@@ -4328,7 +4328,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C279" t="n">
         <v>-0.4797455885145001</v>
@@ -4342,7 +4342,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C280" t="n">
         <v>1.002257553410257</v>
@@ -4356,7 +4356,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C281" t="n">
         <v>-1.467747683131005</v>
@@ -4370,7 +4370,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C282" t="n">
         <v>0.01425545879375223</v>
@@ -4384,7 +4384,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C283" t="n">
         <v>-0.4797455885145001</v>
@@ -4398,7 +4398,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C284" t="n">
         <v>0.01425545879375223</v>
@@ -4412,7 +4412,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C285" t="n">
         <v>1.990259648026762</v>
@@ -4426,7 +4426,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1.503602979278</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C286" t="n">
         <v>-0.4797455885145001</v>
@@ -4440,7 +4440,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.7653795281157342</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C287" t="n">
         <v>-0.9737466358227524</v>
@@ -4454,7 +4454,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C288" t="n">
         <v>1.990259648026762</v>
@@ -4468,7 +4468,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.7110673742087975</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C289" t="n">
         <v>0.01425545879375223</v>
@@ -4482,7 +4482,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C290" t="n">
         <v>0.5082565061020046</v>
@@ -4496,7 +4496,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C291" t="n">
         <v>-0.4797455885145001</v>
@@ -4510,7 +4510,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1.319047116487434</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C292" t="n">
         <v>0.5082565061020046</v>
@@ -4524,7 +4524,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C293" t="n">
         <v>1.002257553410257</v>
@@ -4538,7 +4538,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C294" t="n">
         <v>1.002257553410257</v>
@@ -4552,7 +4552,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C295" t="n">
         <v>0.01425545879375223</v>
@@ -4566,7 +4566,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C296" t="n">
         <v>0.5082565061020046</v>
@@ -4580,7 +4580,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C297" t="n">
         <v>-0.9737466358227524</v>
@@ -4594,7 +4594,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C298" t="n">
         <v>0.01425545879375223</v>
@@ -4608,7 +4608,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C299" t="n">
         <v>-2.455749777747509</v>
@@ -4622,7 +4622,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.9499353909063007</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C300" t="n">
         <v>-0.4797455885145001</v>
@@ -4636,7 +4636,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.7110673742087975</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C301" t="n">
         <v>-0.4797455885145001</v>
@@ -4650,7 +4650,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C302" t="n">
         <v>1.002257553410257</v>
@@ -4664,7 +4664,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C303" t="n">
         <v>1.002257553410257</v>
@@ -4678,7 +4678,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C304" t="n">
         <v>-0.4797455885145001</v>
@@ -4692,7 +4692,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1.319047116487434</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C305" t="n">
         <v>0.01425545879375223</v>
@@ -4706,7 +4706,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.895623236999364</v>
+        <v>-2.038394954766555</v>
       </c>
       <c r="C306" t="n">
         <v>-1.961748730439257</v>
@@ -4720,7 +4720,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.319047116487434</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C307" t="n">
         <v>-0.4797455885145001</v>
@@ -4734,7 +4734,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C308" t="n">
         <v>-0.9737466358227524</v>
@@ -4748,7 +4748,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C309" t="n">
         <v>-0.4797455885145001</v>
@@ -4762,7 +4762,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.02715607695346835</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C310" t="n">
         <v>-0.4797455885145001</v>
@@ -4776,7 +4776,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>1.503602979278</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C311" t="n">
         <v>-0.4797455885145001</v>
@@ -4790,7 +4790,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C312" t="n">
         <v>0.5082565061020046</v>
@@ -4804,7 +4804,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.895623236999364</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C313" t="n">
         <v>0.01425545879375223</v>
@@ -4818,7 +4818,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C314" t="n">
         <v>-0.4797455885145001</v>
@@ -4832,7 +4832,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.3962678025346013</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C315" t="n">
         <v>1.002257553410257</v>
@@ -4846,7 +4846,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C316" t="n">
         <v>0.5082565061020046</v>
@@ -4860,7 +4860,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C317" t="n">
         <v>-1.467747683131005</v>
@@ -4874,7 +4874,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>1.503602979278</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C318" t="n">
         <v>-0.4797455885145001</v>
@@ -4888,7 +4888,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C319" t="n">
         <v>-0.9737466358227524</v>
@@ -4902,7 +4902,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C320" t="n">
         <v>-1.961748730439257</v>
@@ -4916,7 +4916,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C321" t="n">
         <v>1.002257553410257</v>
@@ -4930,7 +4930,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.02715607695346835</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C322" t="n">
         <v>-0.4797455885145001</v>
@@ -4944,7 +4944,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C323" t="n">
         <v>1.990259648026762</v>
@@ -4958,7 +4958,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C324" t="n">
         <v>0.01425545879375223</v>
@@ -4972,7 +4972,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C325" t="n">
         <v>-1.961748730439257</v>
@@ -4986,7 +4986,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C326" t="n">
         <v>-0.4797455885145001</v>
@@ -5000,7 +5000,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1.134491253696867</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C327" t="n">
         <v>-0.4797455885145001</v>
@@ -5014,7 +5014,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C328" t="n">
         <v>0.01425545879375223</v>
@@ -5028,7 +5028,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C329" t="n">
         <v>0.01425545879375223</v>
@@ -5042,7 +5042,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C330" t="n">
         <v>0.01425545879375223</v>
@@ -5056,7 +5056,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>1.872714704859133</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C331" t="n">
         <v>0.01425545879375223</v>
@@ -5070,7 +5070,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C332" t="n">
         <v>0.5082565061020046</v>
@@ -5084,7 +5084,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C333" t="n">
         <v>-0.4797455885145001</v>
@@ -5098,7 +5098,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C334" t="n">
         <v>0.5082565061020046</v>
@@ -5112,7 +5112,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C335" t="n">
         <v>0.01425545879375223</v>
@@ -5126,7 +5126,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-1.63384668816163</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C336" t="n">
         <v>-0.9737466358227524</v>
@@ -5140,7 +5140,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1.688158842068566</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C337" t="n">
         <v>0.5082565061020046</v>
@@ -5154,7 +5154,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.526511511418231</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C338" t="n">
         <v>0.01425545879375223</v>
@@ -5168,7 +5168,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C339" t="n">
         <v>1.002257553410257</v>
@@ -5182,7 +5182,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C340" t="n">
         <v>1.496258600718509</v>
@@ -5196,7 +5196,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C341" t="n">
         <v>1.002257553410257</v>
@@ -5210,7 +5210,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5808236653251677</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C342" t="n">
         <v>0.01425545879375223</v>
@@ -5224,7 +5224,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C343" t="n">
         <v>0.5082565061020046</v>
@@ -5238,7 +5238,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2117119397440348</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C344" t="n">
         <v>1.002257553410257</v>
@@ -5252,7 +5252,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C345" t="n">
         <v>0.5082565061020046</v>
@@ -5266,7 +5266,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C346" t="n">
         <v>0.5082565061020046</v>
@@ -5280,7 +5280,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C347" t="n">
         <v>0.5082565061020046</v>
@@ -5294,7 +5294,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C348" t="n">
         <v>1.002257553410257</v>
@@ -5308,7 +5308,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C349" t="n">
         <v>0.01425545879375223</v>
@@ -5322,7 +5322,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C350" t="n">
         <v>1.002257553410257</v>
@@ -5336,7 +5336,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C351" t="n">
         <v>0.01425545879375223</v>
@@ -5350,7 +5350,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.7653795281157342</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C352" t="n">
         <v>-0.9737466358227524</v>
@@ -5364,7 +5364,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.2117119397440348</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C353" t="n">
         <v>1.002257553410257</v>
@@ -5378,7 +5378,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C354" t="n">
         <v>-0.9737466358227524</v>
@@ -5392,7 +5392,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C355" t="n">
         <v>-0.4797455885145001</v>
@@ -5406,7 +5406,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C356" t="n">
         <v>0.01425545879375223</v>
@@ -5420,7 +5420,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C357" t="n">
         <v>0.01425545879375223</v>
@@ -5434,7 +5434,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C358" t="n">
         <v>2.978261742643266</v>
@@ -5448,7 +5448,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2117119397440348</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C359" t="n">
         <v>1.002257553410257</v>
@@ -5462,7 +5462,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C360" t="n">
         <v>1.002257553410257</v>
@@ -5476,7 +5476,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.3962678025346013</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C361" t="n">
         <v>1.002257553410257</v>
@@ -5490,7 +5490,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.449290825371063</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C362" t="n">
         <v>0.01425545879375223</v>
@@ -5504,7 +5504,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C363" t="n">
         <v>0.01425545879375223</v>
@@ -5518,7 +5518,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C364" t="n">
         <v>0.5082565061020046</v>
@@ -5532,7 +5532,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C365" t="n">
         <v>0.01425545879375223</v>
@@ -5546,7 +5546,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.63384668816163</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C366" t="n">
         <v>-0.4797455885145001</v>
@@ -5560,7 +5560,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.319047116487434</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C367" t="n">
         <v>-1.961748730439257</v>
@@ -5574,7 +5574,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C368" t="n">
         <v>-1.467747683131005</v>
@@ -5588,7 +5588,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>1.134491253696867</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C369" t="n">
         <v>-0.4797455885145001</v>
@@ -5602,7 +5602,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C370" t="n">
         <v>1.496258600718509</v>
@@ -5616,7 +5616,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C371" t="n">
         <v>0.01425545879375223</v>
@@ -5630,7 +5630,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.319047116487434</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C372" t="n">
         <v>-1.467747683131005</v>
@@ -5644,7 +5644,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C373" t="n">
         <v>-0.4797455885145001</v>
@@ -5658,7 +5658,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C374" t="n">
         <v>-0.4797455885145001</v>
@@ -5672,7 +5672,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C375" t="n">
         <v>1.990259648026762</v>
@@ -5686,7 +5686,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C376" t="n">
         <v>-0.9737466358227524</v>
@@ -5700,7 +5700,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-1.080179099789931</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C377" t="n">
         <v>-0.4797455885145001</v>
@@ -5714,7 +5714,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.5808236653251677</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C378" t="n">
         <v>-0.9737466358227524</v>
@@ -5728,7 +5728,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C379" t="n">
         <v>0.01425545879375223</v>
@@ -5742,7 +5742,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.3419556486276646</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C380" t="n">
         <v>-1.961748730439257</v>
@@ -5756,7 +5756,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C381" t="n">
         <v>0.5082565061020046</v>
@@ -5770,7 +5770,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C382" t="n">
         <v>0.5082565061020046</v>
@@ -5784,7 +5784,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C383" t="n">
         <v>0.5082565061020046</v>
@@ -5798,7 +5798,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1.503602979278</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C384" t="n">
         <v>1.002257553410257</v>
@@ -5812,7 +5812,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C385" t="n">
         <v>-2.455749777747509</v>
@@ -5826,7 +5826,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C386" t="n">
         <v>0.5082565061020046</v>
@@ -5840,7 +5840,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C387" t="n">
         <v>-1.467747683131005</v>
@@ -5854,7 +5854,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C388" t="n">
         <v>0.5082565061020046</v>
@@ -5868,7 +5868,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C389" t="n">
         <v>0.01425545879375223</v>
@@ -5882,7 +5882,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C390" t="n">
         <v>1.002257553410257</v>
@@ -5896,7 +5896,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.02715607695346835</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C391" t="n">
         <v>-0.4797455885145001</v>
@@ -5910,7 +5910,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C392" t="n">
         <v>0.5082565061020046</v>
@@ -5924,7 +5924,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1.134491253696867</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C393" t="n">
         <v>-0.4797455885145001</v>
@@ -5938,7 +5938,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C394" t="n">
         <v>0.01425545879375223</v>
@@ -5952,7 +5952,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1.134491253696867</v>
+        <v>2.078021113844616</v>
       </c>
       <c r="C395" t="n">
         <v>-0.4797455885145001</v>
@@ -5966,7 +5966,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C396" t="n">
         <v>0.01425545879375223</v>
@@ -5980,7 +5980,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C397" t="n">
         <v>1.496258600718509</v>
@@ -5994,7 +5994,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C398" t="n">
         <v>1.990259648026762</v>
@@ -6008,7 +6008,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C399" t="n">
         <v>-0.9737466358227524</v>
@@ -6022,7 +6022,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C400" t="n">
         <v>1.496258600718509</v>
@@ -6036,7 +6036,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C401" t="n">
         <v>0.01425545879375223</v>
@@ -6050,7 +6050,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C402" t="n">
         <v>-0.9737466358227524</v>
@@ -6064,7 +6064,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C403" t="n">
         <v>-1.961748730439257</v>
@@ -6078,7 +6078,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1.688158842068566</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C404" t="n">
         <v>-0.4797455885145001</v>
@@ -6092,7 +6092,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C405" t="n">
         <v>0.5082565061020046</v>
@@ -6106,7 +6106,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>-1.264734962580497</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C406" t="n">
         <v>0.01425545879375223</v>
@@ -6120,7 +6120,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1.503602979278</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C407" t="n">
         <v>1.002257553410257</v>
@@ -6134,7 +6134,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C408" t="n">
         <v>0.5082565061020046</v>
@@ -6148,7 +6148,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C409" t="n">
         <v>1.002257553410257</v>
@@ -6162,7 +6162,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C410" t="n">
         <v>-0.4797455885145001</v>
@@ -6176,7 +6176,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C411" t="n">
         <v>-1.467747683131005</v>
@@ -6190,7 +6190,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.2117119397440348</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C412" t="n">
         <v>1.002257553410257</v>
@@ -6204,7 +6204,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1.503602979278</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C413" t="n">
         <v>0.5082565061020046</v>
@@ -6218,7 +6218,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C414" t="n">
         <v>1.002257553410257</v>
@@ -6232,7 +6232,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C415" t="n">
         <v>1.002257553410257</v>
@@ -6246,7 +6246,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C416" t="n">
         <v>-0.9737466358227524</v>
@@ -6260,7 +6260,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1.134491253696867</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C417" t="n">
         <v>-0.4797455885145001</v>
@@ -6274,7 +6274,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C418" t="n">
         <v>0.5082565061020046</v>
@@ -6288,7 +6288,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C419" t="n">
         <v>-0.4797455885145001</v>
@@ -6302,7 +6302,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C420" t="n">
         <v>0.01425545879375223</v>
@@ -6316,7 +6316,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C421" t="n">
         <v>1.002257553410257</v>
@@ -6330,7 +6330,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C422" t="n">
         <v>0.5082565061020046</v>
@@ -6344,7 +6344,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C423" t="n">
         <v>1.002257553410257</v>
@@ -6358,7 +6358,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C424" t="n">
         <v>0.5082565061020046</v>
@@ -6372,7 +6372,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1.319047116487434</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C425" t="n">
         <v>0.01425545879375223</v>
@@ -6386,7 +6386,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C426" t="n">
         <v>0.01425545879375223</v>
@@ -6400,7 +6400,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C427" t="n">
         <v>1.002257553410257</v>
@@ -6414,7 +6414,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>-1.080179099789931</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C428" t="n">
         <v>0.01425545879375223</v>
@@ -6428,7 +6428,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1.134491253696867</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C429" t="n">
         <v>0.01425545879375223</v>
@@ -6442,7 +6442,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1.134491253696867</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C430" t="n">
         <v>-2.455749777747509</v>
@@ -6456,7 +6456,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.9499353909063007</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C431" t="n">
         <v>-0.9737466358227524</v>
@@ -6470,7 +6470,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C432" t="n">
         <v>0.5082565061020046</v>
@@ -6484,7 +6484,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C433" t="n">
         <v>-0.4797455885145001</v>
@@ -6498,7 +6498,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C434" t="n">
         <v>-1.961748730439257</v>
@@ -6512,7 +6512,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1.503602979278</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C435" t="n">
         <v>-0.9737466358227524</v>
@@ -6526,7 +6526,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C436" t="n">
         <v>0.01425545879375223</v>
@@ -6540,7 +6540,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1.688158842068566</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C437" t="n">
         <v>0.5082565061020046</v>
@@ -6554,7 +6554,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C438" t="n">
         <v>-0.4797455885145001</v>
@@ -6568,7 +6568,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>-1.080179099789931</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C439" t="n">
         <v>0.5082565061020046</v>
@@ -6582,7 +6582,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C440" t="n">
         <v>0.01425545879375223</v>
@@ -6596,7 +6596,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.526511511418231</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C441" t="n">
         <v>-0.9737466358227524</v>
@@ -6610,7 +6610,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>-1.449290825371063</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C442" t="n">
         <v>0.5082565061020046</v>
@@ -6624,7 +6624,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>1.319047116487434</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C443" t="n">
         <v>-0.4797455885145001</v>
@@ -6638,7 +6638,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>2.0572705676497</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C444" t="n">
         <v>-0.4797455885145001</v>
@@ -6652,7 +6652,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C445" t="n">
         <v>-0.4797455885145001</v>
@@ -6666,7 +6666,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C446" t="n">
         <v>-1.961748730439257</v>
@@ -6680,7 +6680,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>1.503602979278</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C447" t="n">
         <v>0.01425545879375223</v>
@@ -6694,7 +6694,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C448" t="n">
         <v>-0.4797455885145001</v>
@@ -6708,7 +6708,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C449" t="n">
         <v>-0.4797455885145001</v>
@@ -6722,7 +6722,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C450" t="n">
         <v>0.5082565061020046</v>
@@ -6736,7 +6736,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C451" t="n">
         <v>0.01425545879375223</v>
@@ -6750,7 +6750,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.7110673742087975</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C452" t="n">
         <v>-1.961748730439257</v>
@@ -6764,7 +6764,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>1.503602979278</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C453" t="n">
         <v>1.496258600718509</v>
@@ -6778,7 +6778,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C454" t="n">
         <v>-0.4797455885145001</v>
@@ -6792,7 +6792,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C455" t="n">
         <v>0.01425545879375223</v>
@@ -6806,7 +6806,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>1.134491253696867</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C456" t="n">
         <v>1.002257553410257</v>
@@ -6820,7 +6820,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C457" t="n">
         <v>1.002257553410257</v>
@@ -6834,7 +6834,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C458" t="n">
         <v>1.496258600718509</v>
@@ -6848,7 +6848,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>1.319047116487434</v>
+        <v>0.1781367744856139</v>
       </c>
       <c r="C459" t="n">
         <v>-1.467747683131005</v>
@@ -6862,7 +6862,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>1.319047116487434</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C460" t="n">
         <v>-0.9737466358227524</v>
@@ -6876,7 +6876,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C461" t="n">
         <v>-0.4797455885145001</v>
@@ -6890,7 +6890,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C462" t="n">
         <v>1.002257553410257</v>
@@ -6904,7 +6904,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>1.872714704859133</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C463" t="n">
         <v>-1.961748730439257</v>
@@ -6918,7 +6918,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>1.503602979278</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C464" t="n">
         <v>0.5082565061020046</v>
@@ -6932,7 +6932,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C465" t="n">
         <v>1.002257553410257</v>
@@ -6946,7 +6946,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>-1.080179099789931</v>
+        <v>-1.405100174980221</v>
       </c>
       <c r="C466" t="n">
         <v>-0.9737466358227524</v>
@@ -6960,7 +6960,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.7653795281157342</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C467" t="n">
         <v>1.496258600718509</v>
@@ -6974,7 +6974,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C468" t="n">
         <v>1.002257553410257</v>
@@ -6988,7 +6988,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C469" t="n">
         <v>-1.467747683131005</v>
@@ -7002,7 +7002,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1.319047116487434</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C470" t="n">
         <v>0.5082565061020046</v>
@@ -7016,7 +7016,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>1.503602979278</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C471" t="n">
         <v>0.01425545879375223</v>
@@ -7030,7 +7030,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C472" t="n">
         <v>-0.4797455885145001</v>
@@ -7044,7 +7044,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>-1.63384668816163</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C473" t="n">
         <v>-0.9737466358227524</v>
@@ -7058,7 +7058,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C474" t="n">
         <v>0.01425545879375223</v>
@@ -7072,7 +7072,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>0.5808236653251677</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C475" t="n">
         <v>0.01425545879375223</v>
@@ -7086,7 +7086,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.721747564873388</v>
       </c>
       <c r="C476" t="n">
         <v>0.5082565061020046</v>
@@ -7100,7 +7100,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.3419556486276646</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C477" t="n">
         <v>1.002257553410257</v>
@@ -7114,7 +7114,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>0.7653795281157342</v>
+        <v>1.444726334058282</v>
       </c>
       <c r="C478" t="n">
         <v>0.5082565061020046</v>
@@ -7128,7 +7128,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.7110673742087975</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C479" t="n">
         <v>1.990259648026762</v>
@@ -7142,7 +7142,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>0.3962678025346013</v>
+        <v>1.761373723951449</v>
       </c>
       <c r="C480" t="n">
         <v>0.5082565061020046</v>
@@ -7156,7 +7156,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C481" t="n">
         <v>0.01425545879375223</v>
@@ -7170,7 +7170,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>0.9499353909063007</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C482" t="n">
         <v>1.002257553410257</v>
@@ -7184,7 +7184,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>1.134491253696867</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C483" t="n">
         <v>0.5082565061020046</v>
@@ -7198,7 +7198,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>0.5808236653251677</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C484" t="n">
         <v>0.5082565061020046</v>
@@ -7212,7 +7212,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.526511511418231</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C485" t="n">
         <v>0.01425545879375223</v>
@@ -7226,7 +7226,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>1.134491253696867</v>
+        <v>0.8114315542719479</v>
       </c>
       <c r="C486" t="n">
         <v>0.01425545879375223</v>
@@ -7240,7 +7240,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C487" t="n">
         <v>0.01425545879375223</v>
@@ -7254,7 +7254,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>-1.080179099789931</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C488" t="n">
         <v>0.5082565061020046</v>
@@ -7268,7 +7268,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C489" t="n">
         <v>0.5082565061020046</v>
@@ -7282,7 +7282,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>0.7653795281157342</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C490" t="n">
         <v>-0.4797455885145001</v>
@@ -7296,7 +7296,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.1573997858370981</v>
+        <v>-2.038394954766555</v>
       </c>
       <c r="C491" t="n">
         <v>0.5082565061020046</v>
@@ -7310,7 +7310,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>1.319047116487434</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C492" t="n">
         <v>-0.9737466358227524</v>
@@ -7324,7 +7324,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>1.319047116487434</v>
+        <v>0.4947841643787809</v>
       </c>
       <c r="C493" t="n">
         <v>0.01425545879375223</v>
@@ -7338,7 +7338,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C494" t="n">
         <v>0.5082565061020046</v>
@@ -7352,7 +7352,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.895623236999364</v>
+        <v>-1.088452785087054</v>
       </c>
       <c r="C495" t="n">
         <v>1.002257553410257</v>
@@ -7366,7 +7366,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>-1.449290825371063</v>
+        <v>-0.4551580053007202</v>
       </c>
       <c r="C496" t="n">
         <v>-0.9737466358227524</v>
@@ -7380,7 +7380,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>1.134491253696867</v>
+        <v>2.078021113844616</v>
       </c>
       <c r="C497" t="n">
         <v>0.5082565061020046</v>
@@ -7394,7 +7394,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.895623236999364</v>
+        <v>-0.1385106154075532</v>
       </c>
       <c r="C498" t="n">
         <v>1.496258600718509</v>
@@ -7408,7 +7408,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>1.688158842068566</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C499" t="n">
         <v>1.496258600718509</v>
@@ -7422,7 +7422,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.264734962580497</v>
+        <v>-0.7718053951938872</v>
       </c>
       <c r="C500" t="n">
         <v>0.5082565061020046</v>
@@ -7436,7 +7436,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>1.134491253696867</v>
+        <v>1.128078944165115</v>
       </c>
       <c r="C501" t="n">
         <v>-1.467747683131005</v>
